--- a/outputs-HGR-r202-archive/g__Schaedlerella.xlsx
+++ b/outputs-HGR-r202-archive/g__Schaedlerella.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,17 +469,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT10793.fa</t>
+          <t>even_MAG-GUT26524.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8359635681838695</v>
+        <v>0.9424818819328292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1640364318161305</v>
+        <v>0.0575181180671708</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8359635681838695</v>
+        <v>0.9424818819328292</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -495,17 +495,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT11274.fa</t>
+          <t>even_MAG-GUT32255.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7749882944781895</v>
+        <v>0.8876101092914637</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2250117055218105</v>
+        <v>0.1123898907085364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7749882944781895</v>
+        <v>0.8876101092914637</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -521,17 +521,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT17299.fa</t>
+          <t>even_MAG-GUT35486.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.780304609287809</v>
+        <v>0.9466340369486648</v>
       </c>
       <c r="C4" t="n">
-        <v>0.219695390712191</v>
+        <v>0.05336596305133526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.780304609287809</v>
+        <v>0.9466340369486648</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,69 +547,69 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT26524.fa</t>
+          <t>even_MAG-GUT56334.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9424818819328292</v>
+        <v>0.006638616310105427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0575181180671708</v>
+        <v>0.9933613836898946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9424818819328292</v>
+        <v>0.9933613836898946</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella sp900066545</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella sp900066545</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32002.fa</t>
+          <t>even_MAG-GUT5880.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7722214310167463</v>
+        <v>0.007691414608046121</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2277785689832535</v>
+        <v>0.9923085853919539</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7722214310167463</v>
+        <v>0.9923085853919539</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella sp900066545</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
+          <t>s__Schaedlerella sp900066545</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT32255.fa</t>
+          <t>even_MAG-GUT9618.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8876101092914637</v>
+        <v>0.9491150500013419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1123898907085364</v>
+        <v>0.05088494999865811</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8876101092914637</v>
+        <v>0.9491150500013419</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -625,17 +625,17 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35486.fa</t>
+          <t>even_MAG-GUT9642.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9466340369486648</v>
+        <v>0.9504705943418433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05336596305133526</v>
+        <v>0.04952940565815669</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9466340369486648</v>
+        <v>0.9504705943418433</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -643,344 +643,6 @@
         </is>
       </c>
       <c r="F8" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT38435.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.7639258723229621</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.236074127677038</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7639258723229621</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT48321.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.7068470554664443</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2931529445335557</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7068470554664443</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT51921.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.7764940511187992</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2235059488812007</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.7764940511187992</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT57196.fa</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.7070753430653478</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2929246569346521</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.7070753430653478</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT57727.fa</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.7300412097378702</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2699587902621298</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.7300412097378702</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58131.fa</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.8260403495498186</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1739596504501813</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.8260403495498186</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT58180.fa</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.7965383328254431</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2034616671745569</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.7965383328254431</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT60840.fa</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.6928825305401963</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3071174694598037</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.6928825305401963</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT640.fa</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.7557362887724746</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2442637112275255</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.7557362887724746</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9461.fa</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.6731776158617402</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3268223841382599</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.6731776158617402</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9618.fa</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9491150500013419</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.05088494999865811</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9491150500013419</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9642.fa</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9504705943418433</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.04952940565815669</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9504705943418433</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT9674.fa</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.7752205584598501</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.22477944154015</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.7752205584598501</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>s__Schaedlerella glycyrrhizinilytica</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
         <is>
           <t>s__Schaedlerella glycyrrhizinilytica</t>
         </is>
